--- a/api/v2/app/e-lkh/modules/Lkh/Templates/lkh.xlsx
+++ b/api/v2/app/e-lkh/modules/Lkh/Templates/lkh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>LAPORAN KINERJA BULANAN</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Mengetahui</t>
-  </si>
-  <si>
-    <t>Kabid. Program dan Pengendalian Mutu</t>
-  </si>
-  <si>
-    <t>Kasubid Pengendalian Mutu Diklat</t>
   </si>
 </sst>
 </file>
@@ -181,11 +175,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,23 +190,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -225,17 +204,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,154 +541,151 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="31.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="31.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C9:D9"/>
